--- a/tests/data/testData.xlsx
+++ b/tests/data/testData.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="login" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="login"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -24,34 +27,25 @@
   <si>
     <t>password</t>
   </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>pass123</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>mypass</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,43 +53,59 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -122,22 +132,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -149,149 +219,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -299,7 +403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -307,23 +411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/data/testData.xlsx
+++ b/tests/data/testData.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="login"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="booking" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Username</t>
   </si>
@@ -26,16 +44,84 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>bookingid</t>
+  </si>
+  <si>
+    <t>roomid</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>depositpaid</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>checkin</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Cristhian</t>
+  </si>
+  <si>
+    <t>Montaño</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>qapruebascristhian@gmail.com</t>
+  </si>
+  <si>
+    <t>573214754846</t>
+  </si>
+  <si>
+    <t>2025-01-19</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Vargas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,8 +129,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -56,14 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -75,25 +154,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -102,34 +173,34 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -143,71 +214,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -231,53 +302,50 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -287,7 +355,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -296,7 +364,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -305,7 +373,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -313,10 +381,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -345,7 +413,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -358,12 +426,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -375,27 +444,65 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="1">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="2" max="2" width="11.875" customWidth="1" level="0" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -411,7 +518,248 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" ht="16.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="1">
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:T100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="true"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="2" max="2" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="3" max="3" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="4" max="4" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="5" max="5" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="6" max="6" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="7" max="7" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="8" max="8" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="9" max="9" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="10" max="10" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="11" max="11" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="12" max="12" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="13" max="13" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="14" max="14" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="15" max="15" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="16" max="16" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="17" max="17" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="18" max="18" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="19" max="19" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="20" max="20" width="12.5" customWidth="1" level="0" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" customHeight="1">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="1"/>
+    <row r="5" ht="16.5" customHeight="1"/>
+    <row r="6" ht="16.5" customHeight="1"/>
+    <row r="7" ht="16.5" customHeight="1"/>
+    <row r="8" ht="16.5" customHeight="1"/>
+    <row r="9" ht="16.5" customHeight="1"/>
+    <row r="10" ht="16.5" customHeight="1"/>
+    <row r="11" ht="16.5" customHeight="1"/>
+    <row r="12" ht="16.5" customHeight="1"/>
+    <row r="13" ht="16.5" customHeight="1"/>
+    <row r="14" ht="16.5" customHeight="1"/>
+    <row r="15" ht="16.5" customHeight="1"/>
+    <row r="16" ht="16.5" customHeight="1"/>
+    <row r="17" ht="16.5" customHeight="1"/>
+    <row r="18" ht="16.5" customHeight="1"/>
+    <row r="19" ht="16.5" customHeight="1"/>
+    <row r="20" ht="16.5" customHeight="1"/>
+    <row r="21" ht="16.5" customHeight="1"/>
+    <row r="22" ht="16.5" customHeight="1"/>
+    <row r="23" ht="16.5" customHeight="1"/>
+    <row r="24" ht="16.5" customHeight="1"/>
+    <row r="25" ht="16.5" customHeight="1"/>
+    <row r="26" ht="16.5" customHeight="1"/>
+    <row r="27" ht="16.5" customHeight="1"/>
+    <row r="28" ht="16.5" customHeight="1"/>
+    <row r="29" ht="16.5" customHeight="1"/>
+    <row r="30" ht="16.5" customHeight="1"/>
+    <row r="31" ht="16.5" customHeight="1"/>
+    <row r="32" ht="16.5" customHeight="1"/>
+    <row r="33" ht="16.5" customHeight="1"/>
+    <row r="34" ht="16.5" customHeight="1"/>
+    <row r="35" ht="16.5" customHeight="1"/>
+    <row r="36" ht="16.5" customHeight="1"/>
+    <row r="37" ht="16.5" customHeight="1"/>
+    <row r="38" ht="16.5" customHeight="1"/>
+    <row r="39" ht="16.5" customHeight="1"/>
+    <row r="40" ht="16.5" customHeight="1"/>
+    <row r="41" ht="16.5" customHeight="1"/>
+    <row r="42" ht="16.5" customHeight="1"/>
+    <row r="43" ht="16.5" customHeight="1"/>
+    <row r="44" ht="16.5" customHeight="1"/>
+    <row r="45" ht="16.5" customHeight="1"/>
+    <row r="46" ht="16.5" customHeight="1"/>
+    <row r="47" ht="16.5" customHeight="1"/>
+    <row r="48" ht="16.5" customHeight="1"/>
+    <row r="49" ht="16.5" customHeight="1"/>
+    <row r="50" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="52" ht="16.5" customHeight="1"/>
+    <row r="53" ht="16.5" customHeight="1"/>
+    <row r="54" ht="16.5" customHeight="1"/>
+    <row r="55" ht="16.5" customHeight="1"/>
+    <row r="56" ht="16.5" customHeight="1"/>
+    <row r="57" ht="16.5" customHeight="1"/>
+    <row r="58" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="60" ht="16.5" customHeight="1"/>
+    <row r="61" ht="16.5" customHeight="1"/>
+    <row r="62" ht="16.5" customHeight="1"/>
+    <row r="63" ht="16.5" customHeight="1"/>
+    <row r="64" ht="16.5" customHeight="1"/>
+    <row r="65" ht="16.5" customHeight="1"/>
+    <row r="66" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="68" ht="16.5" customHeight="1"/>
+    <row r="69" ht="16.5" customHeight="1"/>
+    <row r="70" ht="16.5" customHeight="1"/>
+    <row r="71" ht="16.5" customHeight="1"/>
+    <row r="72" ht="16.5" customHeight="1"/>
+    <row r="73" ht="16.5" customHeight="1"/>
+    <row r="74" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="76" ht="16.5" customHeight="1"/>
+    <row r="77" ht="16.5" customHeight="1"/>
+    <row r="78" ht="16.5" customHeight="1"/>
+    <row r="79" ht="16.5" customHeight="1"/>
+    <row r="80" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:T100"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/tests/data/testData.xlsx
+++ b/tests/data/testData.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Vargas</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
